--- a/サーバーチェックシート.xlsx
+++ b/サーバーチェックシート.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="チェック対象" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="検査ルール" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
+    <sheet name="ゲストOSチェックシート(Linux)" sheetId="2" r:id="rId2"/>
+    <sheet name="ゲストOSチェックシート(Windows)" sheetId="3" r:id="rId3"/>
+    <sheet name="ESXiホストチェックシート(VMHost)" sheetId="4" r:id="rId4"/>
+    <sheet name="検査ルール" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="357">
-  <si>
-    <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="362">
+  <si>
+    <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
   <si>
     <t xml:space="preserve">* 項目IDが1番以降のセルを編集します。 
@@ -37,1109 +36,1116 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">項目ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">server_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">win2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ostrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esxi001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.10.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">win2012.ostrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.10.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
+    <t>項目ID</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
+  </si>
+  <si>
+    <t>win2012</t>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>esxi001</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+  </si>
+  <si>
+    <t>192.168.0.14</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>VMHost</t>
+  </si>
+  <si>
+    <t>os_account_id</t>
+  </si>
+  <si>
+    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>remote_account_id</t>
+  </si>
+  <si>
+    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>win2012.ostrich</t>
+  </si>
+  <si>
+    <t>192.168.10.100</t>
+  </si>
+  <si>
+    <t>verify_id</t>
+  </si>
+  <si>
+    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+  </si>
+  <si>
+    <t>以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デバイス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採取情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumCpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想マシンのCPU仮想ソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源On/Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当てサイズ[GB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenterクラスタ名、vCenter構成でない場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vmwaretool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツールの有無、アップグレードの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_timesync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期の有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_iops_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージIOPS制限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージリソースのIOPS制限値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname_fqdn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSカーネル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSバージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux OSディストリビューション情報 を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/proc/cpuinfo を検索してプロセッサ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUプロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック数[MHz]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数。VMの場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machineid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サーバの識別子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下のファイルを検索してマシンの識別子を検索
+    <t>ID</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>採取情報</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>vm</t>
+  </si>
+  <si>
+    <t>VMWare リソース</t>
+  </si>
+  <si>
+    <t>vCenter</t>
+  </si>
+  <si>
+    <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
+  </si>
+  <si>
+    <t>NumCpu</t>
+  </si>
+  <si>
+    <t>├─CPU割り当て数</t>
+  </si>
+  <si>
+    <t>仮想マシンのCPU仮想ソケット数</t>
+  </si>
+  <si>
+    <t>PowerState</t>
+  </si>
+  <si>
+    <t>├─電源状態</t>
+  </si>
+  <si>
+    <t>電源On/Off</t>
+  </si>
+  <si>
+    <t>MemoryGB</t>
+  </si>
+  <si>
+    <t>├─メモリ割り当て</t>
+  </si>
+  <si>
+    <t>メモリ割り当てサイズ[GB]</t>
+  </si>
+  <si>
+    <t>├─ESXiホスト</t>
+  </si>
+  <si>
+    <t>ESXiホスト名</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>└─クラスター</t>
+  </si>
+  <si>
+    <t>vCenterクラスタ名、vCenter構成でない場合は未記入</t>
+  </si>
+  <si>
+    <t>vmwaretool</t>
+  </si>
+  <si>
+    <t>VMWare ツール</t>
+  </si>
+  <si>
+    <t>VMWare ツールの有無、アップグレードの検索</t>
+  </si>
+  <si>
+    <t>vm_timesync</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期の有無</t>
+  </si>
+  <si>
+    <t>vm_iops_limit</t>
+  </si>
+  <si>
+    <t>ストレージIOPS制限</t>
+  </si>
+  <si>
+    <t>ストレージリソースのIOPS制限値を検索</t>
+  </si>
+  <si>
+    <t>vm_storage</t>
+  </si>
+  <si>
+    <t>ストレージ構成</t>
+  </si>
+  <si>
+    <t>ストレージ構成情報検索</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>ホスト名</t>
+  </si>
+  <si>
+    <t>ホスト名の検索</t>
+  </si>
+  <si>
+    <t>hostname_fqdn</t>
+  </si>
+  <si>
+    <t>FQDN名</t>
+  </si>
+  <si>
+    <t>FQDN名の検索</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>OSカーネル</t>
+  </si>
+  <si>
+    <t>lsb</t>
+  </si>
+  <si>
+    <t>OSバージョン</t>
+  </si>
+  <si>
+    <t>Linux OSディストリビューション情報 を検索</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>CPU情報</t>
+  </si>
+  <si>
+    <t>/proc/cpuinfo を検索してプロセッサ構成を検索</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>├─プロセッサーモデル</t>
+  </si>
+  <si>
+    <t>CPUプロセッサーモデル</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
+    <t>├─CPUクロック</t>
+  </si>
+  <si>
+    <t>CPUクロック数[MHz]</t>
+  </si>
+  <si>
+    <t>cpu_total</t>
+  </si>
+  <si>
+    <t>├─CPUスレッド数</t>
+  </si>
+  <si>
+    <t>CPUスレッド数</t>
+  </si>
+  <si>
+    <t>cpu_core</t>
+  </si>
+  <si>
+    <t>├─CPUコア数</t>
+  </si>
+  <si>
+    <t>CPUコア数。VMの場合は未記入</t>
+  </si>
+  <si>
+    <t>cpu_real</t>
+  </si>
+  <si>
+    <t>└─CPUソケット数</t>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+  </si>
+  <si>
+    <t>machineid</t>
+  </si>
+  <si>
+    <t>サーバの識別子</t>
+  </si>
+  <si>
+    <t>以下のファイルを検索してマシンの識別子を検索
     /etc/machine-id
     /var/lib/dbus/machine-id</t>
   </si>
   <si>
-    <t xml:space="preserve">meminfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─搭載メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理搭載メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─メモリ空容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ空き容量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hw_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_onboot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークブート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デフォルトゲートウェイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block_device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージデバイス</t>
+    <t>meminfo</t>
+  </si>
+  <si>
+    <t>メモリ情報</t>
+  </si>
+  <si>
+    <t>"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
+  </si>
+  <si>
+    <t>mem_total</t>
+  </si>
+  <si>
+    <t>├─搭載メモリ量</t>
+  </si>
+  <si>
+    <t>物理搭載メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>mem_free</t>
+  </si>
+  <si>
+    <t>└─メモリ空容量</t>
+  </si>
+  <si>
+    <t>メモリ空き容量[KB]</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>ネットワーク情報</t>
+  </si>
+  <si>
+    <t>/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>hw_address</t>
+  </si>
+  <si>
+    <t>└─MACアドレス</t>
+  </si>
+  <si>
+    <t>MACアドレス</t>
+  </si>
+  <si>
+    <t>net_onboot</t>
+  </si>
+  <si>
+    <t>ネットワークブート</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
+  </si>
+  <si>
+    <t>net_route</t>
+  </si>
+  <si>
+    <t>デフォルトゲートウェイ</t>
+  </si>
+  <si>
+    <t>/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>block_device</t>
+  </si>
+  <si>
+    <t>ストレージデバイス</t>
   </si>
   <si>
     <t xml:space="preserve">/sys/block/下を検索し、各デバイスのベンダー情報、タイムアウト値、キューサイズを検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">mdadb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクRAID</t>
+    <t>mdadb</t>
+  </si>
+  <si>
+    <t>ディスクRAID</t>
   </si>
   <si>
     <t xml:space="preserve">"/proc/mdstat" ファイルを探して、md([0-9]+)デバイスを取得。"mdadm --detail /dev/#{device}" を実行して、結果を取得。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">filesystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルシステム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ルート(/)マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルート(/)マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.[SWAP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─/boot マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/boot マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user.zabbix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─zabbix ユーザ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zabbix ユーザの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データの暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下ファイルを読んで、データ暗号化の有無を確認
+    <t>filesystem</t>
+  </si>
+  <si>
+    <t>ファイルシステム</t>
+  </si>
+  <si>
+    <t>"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem./</t>
+  </si>
+  <si>
+    <t>├─ルート(/)マウントポイント</t>
+  </si>
+  <si>
+    <t>ルート(/)マウントポイント容量</t>
+  </si>
+  <si>
+    <t>filesystem.[SWAP]</t>
+  </si>
+  <si>
+    <t>├─スワップ</t>
+  </si>
+  <si>
+    <t>スワップ容量</t>
+  </si>
+  <si>
+    <t>filesystem./boot</t>
+  </si>
+  <si>
+    <t>└─/boot マウントポイント</t>
+  </si>
+  <si>
+    <t>/boot マウントポイント容量</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
+  </si>
+  <si>
+    <t>"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>user.zabbix</t>
+  </si>
+  <si>
+    <t>└─zabbix ユーザ</t>
+  </si>
+  <si>
+    <t>zabbix ユーザの有無</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>データの暗号化</t>
+  </si>
+  <si>
+    <t>以下ファイルを読んで、データ暗号化の有無を確認
 /proc/sys/crypto/fips_enabled</t>
   </si>
   <si>
-    <t xml:space="preserve">virturization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想化プラットフォーム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービス構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.kdump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Kdumpクラッシュリカバリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdump クラッシュリカバリーサービスの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.iptables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iptables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.ip6tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─IPv6ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip6tables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.restorecond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─SELinux運用サポート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinux の運用サポートデーモンの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.NetworkManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ネットワークマネージャー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク管理の自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.vncserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─VNCサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNCサーバの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パッケージ構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpm -qa でパッケージ情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.gcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─gcc コンパイラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gcc パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.httpd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Apache HTTPサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">httpd パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.mysql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─MySQLデータベース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysql パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requiement_for_oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─Oracle必須パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOマウントの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount コマンドで.isoファイルのマウント情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proxy_global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yumコマンドプロキシ設定有無</t>
+    <t>virturization</t>
+  </si>
+  <si>
+    <t>仮想化プラットフォーム</t>
+  </si>
+  <si>
+    <t>XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>サービス構成</t>
+  </si>
+  <si>
+    <t>chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>service.kdump</t>
+  </si>
+  <si>
+    <t>├─Kdumpクラッシュリカバリ</t>
+  </si>
+  <si>
+    <t>kdump クラッシュリカバリーサービスの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.iptables</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>iptables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.ip6tables</t>
+  </si>
+  <si>
+    <t>├─IPv6ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>ip6tables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.restorecond</t>
+  </si>
+  <si>
+    <t>├─SELinux運用サポート</t>
+  </si>
+  <si>
+    <t>SELinux の運用サポートデーモンの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.NetworkManager</t>
+  </si>
+  <si>
+    <t>├─ネットワークマネージャー</t>
+  </si>
+  <si>
+    <t>ネットワーク管理の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.vncserver</t>
+  </si>
+  <si>
+    <t>└─VNCサービス</t>
+  </si>
+  <si>
+    <t>VNCサーバの自動起動設定</t>
+  </si>
+  <si>
+    <t>packages</t>
+  </si>
+  <si>
+    <t>パッケージ構成</t>
+  </si>
+  <si>
+    <t>rpm -qa でパッケージ情報取得</t>
+  </si>
+  <si>
+    <t>packages.gcc</t>
+  </si>
+  <si>
+    <t>├─gcc コンパイラ</t>
+  </si>
+  <si>
+    <t>gcc パッケージ</t>
+  </si>
+  <si>
+    <t>packages.httpd</t>
+  </si>
+  <si>
+    <t>├─Apache HTTPサービス</t>
+  </si>
+  <si>
+    <t>httpd パッケージ</t>
+  </si>
+  <si>
+    <t>packages.mysql</t>
+  </si>
+  <si>
+    <t>├─MySQLデータベース</t>
+  </si>
+  <si>
+    <t>mysql パッケージ</t>
+  </si>
+  <si>
+    <t>requiement_for_oracle</t>
+  </si>
+  <si>
+    <t>└─Oracle必須パッケージ</t>
+  </si>
+  <si>
+    <t>Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
+  </si>
+  <si>
+    <t>mount_iso</t>
+  </si>
+  <si>
+    <t>ISOマウントの有無</t>
+  </si>
+  <si>
+    <t>mount コマンドで.isoファイルのマウント情報取得</t>
+  </si>
+  <si>
+    <t>proxy_global</t>
+  </si>
+  <si>
+    <t>yumコマンドプロキシ設定有無</t>
   </si>
   <si>
     <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
   </si>
   <si>
-    <t xml:space="preserve">crash_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラッシュダンプサイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sys/kernel/kexec_crash_size を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runlevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ランレベル</t>
+    <t>crash_size</t>
+  </si>
+  <si>
+    <t>クラッシュダンプサイズ</t>
+  </si>
+  <si>
+    <t>/sys/kernel/kexec_crash_size を検索</t>
+  </si>
+  <si>
+    <t>runlevel</t>
+  </si>
+  <si>
+    <t>ランレベル</t>
   </si>
   <si>
     <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">resolve_conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS設定</t>
+    <t>resolve_conf</t>
+  </si>
+  <si>
+    <t>DNS設定</t>
   </si>
   <si>
     <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">nameservers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxステータス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus コマンドからステータス検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─SELinux モード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxモードの検索。SELinuxが無効の場合は空白</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle_module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleインストーラの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/root/packageの下にOracleインストールファイルがあるか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleモジュールの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
+    <t>nameservers</t>
+  </si>
+  <si>
+    <t>DNSサーバの検索</t>
+  </si>
+  <si>
+    <t>sestatus</t>
+  </si>
+  <si>
+    <t>SELinuxステータス</t>
+  </si>
+  <si>
+    <t>sestatus コマンドからステータス検索</t>
+  </si>
+  <si>
+    <t>se_mode</t>
+  </si>
+  <si>
+    <t>SELinuxモードの検索。SELinuxが無効の場合は空白</t>
+  </si>
+  <si>
+    <t>oracle_module</t>
+  </si>
+  <si>
+    <t>Oracleインストーラの有無</t>
+  </si>
+  <si>
+    <t>/root/packageの下にOracleインストールファイルがあるか</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>Oracleモジュールの有無</t>
+  </si>
+  <si>
+    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。 </t>
   </si>
   <si>
-    <t xml:space="preserve">Win32_Processor オブジェクトからCPU情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─スレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、メモリ情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─物理メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_virtual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─仮想メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free_physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─空きメモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから、システム情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、OS情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─OS名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_csd_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─サービスパック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービスパック名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─アーキテクチャ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーキテクチャ(32bit/64bit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─製品タイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドライバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.C:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Cドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.D:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─Dドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_UserAccount から、アカウント情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get-Service から、サービスのステータスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMware Tools サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Update サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化ポリシー。Enabled の値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virturalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから仮想化プラットフォームを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_timeout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト[秒]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter情報のホスト情報を検索します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CpuTotalMhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryTotalGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LicenseKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProcessorType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirewallDefaultPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HyperthreadingActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMSwapfilePolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StorageInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkAdapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiskPartition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datastore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレッド数</t>
+    <t>Win32_Processor オブジェクトからCPU情報を検索</t>
+  </si>
+  <si>
+    <t>└─スレッド数</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、メモリ情報を検索</t>
+  </si>
+  <si>
+    <t>total_visible</t>
+  </si>
+  <si>
+    <t>├─物理メモリ量</t>
+  </si>
+  <si>
+    <t>total_virtual</t>
+  </si>
+  <si>
+    <t>├─仮想メモリ量</t>
+  </si>
+  <si>
+    <t>仮想メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>free_physical</t>
+  </si>
+  <si>
+    <t>└─空きメモリ量</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>システム情報</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから、システム情報を検索</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>├─ドメイン名</t>
+  </si>
+  <si>
+    <t>ドメイン名</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>├─メーカー</t>
+  </si>
+  <si>
+    <t>メーカー</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>├─モデル</t>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>└─コンピューター名</t>
+  </si>
+  <si>
+    <t>コンピューター名</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>OS情報</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、OS情報を検索</t>
+  </si>
+  <si>
+    <t>os_caption</t>
+  </si>
+  <si>
+    <t>├─OS名</t>
+  </si>
+  <si>
+    <t>OS名称</t>
+  </si>
+  <si>
+    <t>os_csd_version</t>
+  </si>
+  <si>
+    <t>├─サービスパック</t>
+  </si>
+  <si>
+    <t>サービスパック名</t>
+  </si>
+  <si>
+    <t>os_architecture</t>
+  </si>
+  <si>
+    <t>├─アーキテクチャ</t>
+  </si>
+  <si>
+    <t>アーキテクチャ(32bit/64bit)</t>
+  </si>
+  <si>
+    <t>os_product_type</t>
+  </si>
+  <si>
+    <t>└─製品タイプ</t>
+  </si>
+  <si>
+    <t>1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>ドライバー</t>
+  </si>
+  <si>
+    <t>Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>ディスク容量</t>
+  </si>
+  <si>
+    <t>Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem.C:</t>
+  </si>
+  <si>
+    <t>├─Cドライブ</t>
+  </si>
+  <si>
+    <t>Cドライブ容量</t>
+  </si>
+  <si>
+    <t>filesystem.D:</t>
+  </si>
+  <si>
+    <t>└─Dドライブ</t>
+  </si>
+  <si>
+    <t>Dドライブ容量</t>
+  </si>
+  <si>
+    <t>Win32_UserAccount から、アカウント情報を検索</t>
+  </si>
+  <si>
+    <t>Get-Service から、サービスのステータスを検索</t>
+  </si>
+  <si>
+    <t>service.VMTools</t>
+  </si>
+  <si>
+    <t>├─VMTools</t>
+  </si>
+  <si>
+    <t>VMware Tools サービス</t>
+  </si>
+  <si>
+    <t>service.wuauserv</t>
+  </si>
+  <si>
+    <t>└─wuauserv</t>
+  </si>
+  <si>
+    <t>Windows Update サービス</t>
+  </si>
+  <si>
+    <t>システム暗号化</t>
+  </si>
+  <si>
+    <t>システム暗号化ポリシー。Enabled の値を検索</t>
+  </si>
+  <si>
+    <t>ネットワーク構成</t>
+  </si>
+  <si>
+    <t>Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>firewall</t>
+  </si>
+  <si>
+    <t>ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>DNSサーバ</t>
+  </si>
+  <si>
+    <t>virturalization</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから仮想化プラットフォームを検索</t>
+  </si>
+  <si>
+    <t>storage_timeout</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト値</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト[秒]</t>
+  </si>
+  <si>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>NTPサーバ情報</t>
+  </si>
+  <si>
+    <t>NTPサーバ名</t>
+  </si>
+  <si>
+    <t>ホスト情報</t>
+  </si>
+  <si>
+    <t>vCenter情報のホスト情報を検索します</t>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CpuTotalMhz</t>
+  </si>
+  <si>
+    <t>CPUクロック</t>
+  </si>
+  <si>
+    <t>MemoryTotalGB</t>
+  </si>
+  <si>
+    <t>├─メモリ容量</t>
+  </si>
+  <si>
+    <t>メモリ容量</t>
+  </si>
+  <si>
+    <t>LicenseKey</t>
+  </si>
+  <si>
+    <t>├─ライセンス</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ProcessorType</t>
+  </si>
+  <si>
+    <t>├─プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>├─バージョン</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>├─ビルド</t>
+  </si>
+  <si>
+    <t>ビルド</t>
+  </si>
+  <si>
+    <t>FirewallDefaultPolicy</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>HyperthreadingActive</t>
+  </si>
+  <si>
+    <t>├─ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>├─タイムゾーン</t>
+  </si>
+  <si>
+    <t>タイムゾーン</t>
+  </si>
+  <si>
+    <t>電源状態</t>
+  </si>
+  <si>
+    <t>VMSwapfilePolicy</t>
+  </si>
+  <si>
+    <t>├─スワップポリシー</t>
+  </si>
+  <si>
+    <t>スワップポリシー</t>
+  </si>
+  <si>
+    <t>StorageInfo</t>
+  </si>
+  <si>
+    <t>├─ストレージ</t>
+  </si>
+  <si>
+    <t>ストレージ</t>
+  </si>
+  <si>
+    <t>NetworkInfo</t>
+  </si>
+  <si>
+    <t>└─ネットワーク</t>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>アカウント情報</t>
+  </si>
+  <si>
+    <t>アカウント数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>NetworkAdapter</t>
+  </si>
+  <si>
+    <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>ディスク構成</t>
+  </si>
+  <si>
+    <t>ディスク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>DiskPartition</t>
+  </si>
+  <si>
+    <t>ディスクパーティション</t>
+  </si>
+  <si>
+    <t>ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Datastore</t>
+  </si>
+  <si>
+    <t>データストア</t>
+  </si>
+  <si>
+    <t>データストア数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>RuleAP</t>
+  </si>
+  <si>
+    <t>RuleDB</t>
+  </si>
+  <si>
+    <t>VMWare リソース割り当て</t>
+  </si>
+  <si>
+    <t>CPU割り当て数</t>
+  </si>
+  <si>
+    <t>メモリ割り当て</t>
+  </si>
+  <si>
+    <t>ESXiホスト</t>
+  </si>
+  <si>
+    <t>クラスター</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>スレッド数</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ntp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>NTPサーバ名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>NTPサーバの検索</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>└─SELinux モード</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>└─DNSサーバ名</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1177,6 +1183,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1193,252 +1205,514 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.04639175257732"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.319587628866"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.04639175257732"/>
+    <col min="1" max="1" width="8"/>
+    <col min="2" max="2" width="17.375"/>
+    <col min="3" max="3" width="36.875"/>
+    <col min="4" max="8" width="13.5"/>
+    <col min="9" max="9" width="12.25"/>
+    <col min="10" max="1025" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="77.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="3">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="3">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1462,7 +1736,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1484,7 +1758,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1508,7 +1782,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1530,7 +1804,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1554,7 +1828,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1578,7 +1852,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1596,7 +1870,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
         <v>29</v>
@@ -1612,7 +1886,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1626,7 +1900,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1640,7 +1914,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1654,7 +1928,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1668,7 +1942,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1682,7 +1956,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1700,40 +1974,33 @@
   <mergeCells count="1">
     <mergeCell ref="B2:M2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.04639175257732"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5051546391753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.54639175257732"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.04639175257732"/>
+    <col min="1" max="1" width="8"/>
+    <col min="2" max="2" width="19.5"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.5"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="54.875"/>
+    <col min="7" max="10" width="13.375"/>
+    <col min="11" max="1025" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1741,7 +2008,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1751,7 +2018,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1759,7 +2026,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +2046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -1797,7 +2064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -1813,7 +2080,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>44</v>
@@ -1829,7 +2096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>47</v>
@@ -1845,7 +2112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -1861,7 +2128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>52</v>
@@ -1877,7 +2144,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1895,7 +2162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1913,7 +2180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1931,7 +2198,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1951,7 +2218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1969,7 +2236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1987,7 +2254,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -2005,7 +2272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
@@ -2023,7 +2290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -2041,7 +2308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>81</v>
@@ -2057,7 +2324,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
         <v>84</v>
@@ -2073,7 +2340,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>87</v>
@@ -2089,7 +2356,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
         <v>90</v>
@@ -2105,7 +2372,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
         <v>93</v>
@@ -2121,7 +2388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -2139,7 +2406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -2157,7 +2424,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
         <v>102</v>
@@ -2173,7 +2440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
         <v>105</v>
@@ -2189,7 +2456,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
@@ -2209,7 +2476,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="3" t="s">
         <v>111</v>
@@ -2225,7 +2492,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -2243,7 +2510,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -2261,7 +2528,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>120</v>
       </c>
@@ -2279,7 +2546,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -2297,7 +2564,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -2317,7 +2584,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>130</v>
@@ -2333,7 +2600,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>133</v>
@@ -2349,7 +2616,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>136</v>
@@ -2365,7 +2632,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -2385,7 +2652,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>142</v>
@@ -2401,7 +2668,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
@@ -2419,7 +2686,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -2437,7 +2704,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>36</v>
       </c>
@@ -2457,7 +2724,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>154</v>
@@ -2473,7 +2740,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>157</v>
@@ -2489,7 +2756,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>160</v>
@@ -2505,7 +2772,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>163</v>
@@ -2521,7 +2788,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>166</v>
@@ -2537,7 +2804,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>169</v>
@@ -2553,7 +2820,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
@@ -2573,7 +2840,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>175</v>
@@ -2589,7 +2856,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>178</v>
@@ -2605,7 +2872,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>181</v>
@@ -2621,7 +2888,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>184</v>
@@ -2637,7 +2904,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>36</v>
       </c>
@@ -2655,7 +2922,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -2673,7 +2940,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -2691,7 +2958,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>36</v>
       </c>
@@ -2709,7 +2976,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
@@ -2727,130 +2994,136 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
-        <v>36</v>
-      </c>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
       <c r="B60" s="5" t="s">
         <v>202</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="4" t="s">
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5" t="s">
+      <c r="C63" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="5" t="s">
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="3" t="s">
+      <c r="C64" s="5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="D64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C63" s="5" t="s">
+    </row>
+    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8" t="s">
+      <c r="C65" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="D65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.04639175257732"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1855670103093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5463917525773"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.6443298969072"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0463917525773"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.04639175257732"/>
+    <col min="1" max="1" width="8"/>
+    <col min="2" max="2" width="16.5"/>
+    <col min="3" max="3" width="26.125"/>
+    <col min="4" max="4" width="15.5"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="55.625"/>
+    <col min="7" max="7" width="14"/>
+    <col min="8" max="1025" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2858,9 +3131,9 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2868,7 +3141,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2876,7 +3149,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2896,7 +3169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -2914,7 +3187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -2930,7 +3203,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>44</v>
@@ -2946,7 +3219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>47</v>
@@ -2962,7 +3235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -2978,7 +3251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>52</v>
@@ -2994,7 +3267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -3012,7 +3285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -3030,7 +3303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3048,7 +3321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -3068,7 +3341,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -3083,10 +3356,10 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>81</v>
@@ -3102,7 +3375,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
         <v>84</v>
@@ -3118,13 +3391,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
@@ -3134,12 +3407,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>100</v>
@@ -3149,16 +3422,16 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>15</v>
@@ -3168,29 +3441,29 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>15</v>
@@ -3200,179 +3473,179 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>15</v>
@@ -3381,10 +3654,10 @@
         <v>36</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -3392,7 +3665,7 @@
         <v>127</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>15</v>
@@ -3401,42 +3674,42 @@
         <v>36</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
       <c r="B35" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
@@ -3453,10 +3726,10 @@
         <v>36</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -3473,42 +3746,42 @@
         <v>36</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
@@ -3516,17 +3789,17 @@
         <v>145</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
@@ -3534,7 +3807,7 @@
         <v>108</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>15</v>
@@ -3543,18 +3816,18 @@
         <v>36</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>15</v>
@@ -3563,33 +3836,33 @@
         <v>36</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>149</v>
@@ -3599,46 +3872,46 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -3646,7 +3919,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -3654,7 +3927,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="14"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -3662,7 +3935,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -3670,7 +3943,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -3678,7 +3951,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -3686,7 +3959,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -3695,39 +3968,30 @@
       <c r="F54" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.18041237113402"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5927835051546"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.31958762886598"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1907216494845"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.31958762886598"/>
+    <col min="1" max="1" width="5.125"/>
+    <col min="2" max="2" width="21.25"/>
+    <col min="3" max="3" width="23.625"/>
+    <col min="4" max="4" width="8.375"/>
+    <col min="5" max="5" width="7.375"/>
+    <col min="6" max="6" width="50.25"/>
+    <col min="7" max="1025" width="8.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3735,7 +3999,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3743,7 +4007,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3751,7 +4015,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -3771,7 +4035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -3779,17 +4043,17 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>41</v>
@@ -3802,13 +4066,13 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>85</v>
@@ -3818,138 +4082,138 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>44</v>
@@ -3962,82 +4226,82 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>17</v>
@@ -4046,18 +4310,18 @@
         <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>17</v>
@@ -4066,18 +4330,18 @@
         <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>17</v>
@@ -4086,18 +4350,18 @@
         <v>36</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>17</v>
@@ -4106,18 +4370,18 @@
         <v>36</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>17</v>
@@ -4126,10 +4390,10 @@
         <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4137,7 +4401,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4145,7 +4409,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4153,7 +4417,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4161,7 +4425,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4169,7 +4433,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4177,7 +4441,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4185,7 +4449,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4193,7 +4457,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4201,7 +4465,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4209,7 +4473,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4217,7 +4481,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4225,7 +4489,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4233,7 +4497,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4241,7 +4505,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4249,7 +4513,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4257,7 +4521,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4265,7 +4529,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4273,7 +4537,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4281,7 +4545,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4289,7 +4553,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4297,7 +4561,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4305,7 +4569,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4313,7 +4577,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4321,7 +4585,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4329,7 +4593,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4338,10 +4602,10 @@
       <c r="F51" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -4349,28 +4613,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.04639175257732"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.54639175257732"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.04639175257732"/>
+    <col min="1" max="1" width="8"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.5"/>
+    <col min="5" max="5" width="16.125"/>
+    <col min="6" max="6" width="16.25"/>
+    <col min="7" max="1025" width="8"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>31</v>
@@ -4382,19 +4643,19 @@
         <v>33</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>39</v>
@@ -4402,13 +4663,13 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>39</v>
@@ -4416,13 +4677,13 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>39</v>
@@ -4430,13 +4691,13 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>39</v>
@@ -4444,13 +4705,13 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>39</v>
@@ -4458,7 +4719,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16" t="s">
         <v>55</v>
@@ -4472,7 +4733,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16" t="s">
         <v>58</v>
@@ -4486,7 +4747,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
         <v>67</v>
@@ -4500,7 +4761,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>73</v>
@@ -4514,7 +4775,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16" t="s">
         <v>75</v>
@@ -4528,7 +4789,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
         <v>87</v>
@@ -4542,13 +4803,13 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>15</v>
@@ -4556,7 +4817,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>78</v>
@@ -4570,10 +4831,10 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>100</v>
@@ -4584,13 +4845,13 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>15</v>
@@ -4598,13 +4859,13 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
         <v>127</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>15</v>
@@ -4612,13 +4873,13 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
         <v>145</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>15</v>
@@ -4626,13 +4887,13 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>15</v>
@@ -4640,10 +4901,10 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>149</v>
@@ -4655,12 +4916,8 @@
       <c r="F23" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>